--- a/Buyer hub/Orders/Manual testcases/Filters testcases.xlsx
+++ b/Buyer hub/Orders/Manual testcases/Filters testcases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Testcases one group\Buyer hub\Orders\Manual testcases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Orders\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4CDA2FB-DA09-4C60-9013-76E3313704DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85BBAD1D-C5D7-4D45-94D5-AA1C570BB95D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="53">
   <si>
     <t>SL. No</t>
   </si>
@@ -66,64 +66,6 @@
         <family val="2"/>
       </rPr>
       <t>Filter"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Once click on the "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Filter"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">,It should display the dropdown value of </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>"Outlet, Supplier, Order status, Invoicing status and Order type"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">As per expected, Once click on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>"Filter",</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>It get displayed the dropdown value of outlet,supplier,order status,invoicing status order type</t>
     </r>
   </si>
   <si>
@@ -867,6 +809,210 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve"> It get displayed the "Deal and Essentials", search box and select all</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Once click on the "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Filter"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">,It should display the dropdown value of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Outlet, Supplier, Order status, Invoicing status, Delivery status and Order type"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">As per expected, Once click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Filter",</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>It get displayed the dropdown value of outlet,supplier,order status,invoicing status, Delivery status and order type</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Once click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Delivery status"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">It should display the "Received and Unmarked", search box and select all
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">As per expected, Once click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Delivery status",</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> It get displayed the "Received and Unmarked", search box and select all</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Once click on the "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Select all</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>",It selected the all delivery status</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Once click on the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> "Deselect all</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">",It should display the all the delivery status are unchecked in check box list
+</t>
+    </r>
+  </si>
+  <si>
+    <t>As per expected, Once click on the "Deselect all",It get displayed the all the delivery status are unchecked in check box list</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Delivery status</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(new)</t>
     </r>
   </si>
 </sst>
@@ -1283,10 +1429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F14" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1335,13 +1481,13 @@
         <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1355,16 +1501,16 @@
         <v>8</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="G3" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1378,16 +1524,16 @@
         <v>8</v>
       </c>
       <c r="D4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>18</v>
-      </c>
       <c r="G4" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -1401,16 +1547,16 @@
         <v>8</v>
       </c>
       <c r="D5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="G5" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -1424,16 +1570,16 @@
         <v>8</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1447,16 +1593,16 @@
         <v>8</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -1470,16 +1616,16 @@
         <v>8</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="G8" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -1493,16 +1639,16 @@
         <v>8</v>
       </c>
       <c r="D9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="G9" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1516,16 +1662,16 @@
         <v>8</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -1539,16 +1685,16 @@
         <v>8</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -1562,16 +1708,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1585,16 +1731,16 @@
         <v>8</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -1608,16 +1754,16 @@
         <v>8</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -1631,16 +1777,16 @@
         <v>8</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1654,16 +1800,16 @@
         <v>8</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -1677,16 +1823,85 @@
         <v>8</v>
       </c>
       <c r="D17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
         <v>19</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>12</v>
+      <c r="B20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Buyer hub/Orders/Manual testcases/Filters testcases.xlsx
+++ b/Buyer hub/Orders/Manual testcases/Filters testcases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Orders\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85BBAD1D-C5D7-4D45-94D5-AA1C570BB95D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16EBB8FA-B5EF-48E4-A336-04258C090F6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -813,6 +813,54 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">As per expected, Once click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Filter",</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>It get displayed the dropdown value of outlet,supplier,order status,invoicing status, Delivery status and order type</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">As per expected, Once click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Delivery status",</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> It get displayed the "Received and Unmarked", search box and select all</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>Once click on the "</t>
     </r>
     <r>
@@ -823,6 +871,58 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
+      <t>Select all</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>",It selected the all delivery status</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Once click on the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> "Deselect all</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">",It should display the all the delivery status are unchecked in check box list
+</t>
+    </r>
+  </si>
+  <si>
+    <t>As per expected, Once click on the "Deselect all",It get displayed the all the delivery status are unchecked in check box list</t>
+  </si>
+  <si>
+    <r>
+      <t>Once click on the "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
       <t>Filter"</t>
     </r>
     <r>
@@ -842,31 +942,41 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>"Outlet, Supplier, Order status, Invoicing status, Delivery status and Order type"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">As per expected, Once click on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>"Filter",</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>It get displayed the dropdown value of outlet,supplier,order status,invoicing status, Delivery status and order type</t>
+      <t>"Outlet, Supplier, Order status, Invoicing status, Receiving status and Order type"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Receiving status</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(new)</t>
     </r>
   </si>
   <si>
@@ -882,7 +992,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>"Delivery status"</t>
+      <t>"Receiving  status"</t>
     </r>
     <r>
       <rPr>
@@ -903,116 +1013,6 @@
       </rPr>
       <t xml:space="preserve">It should display the "Received and Unmarked", search box and select all
 </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">As per expected, Once click on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>"Delivery status",</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> It get displayed the "Received and Unmarked", search box and select all</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Once click on the "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Select all</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>",It selected the all delivery status</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Once click on the</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> "Deselect all</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">",It should display the all the delivery status are unchecked in check box list
-</t>
-    </r>
-  </si>
-  <si>
-    <t>As per expected, Once click on the "Deselect all",It get displayed the all the delivery status are unchecked in check box list</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Click on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>"Delivery status</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(new)</t>
     </r>
   </si>
 </sst>
@@ -1432,7 +1432,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1481,10 +1481,10 @@
         <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>10</v>
@@ -1846,13 +1846,13 @@
         <v>8</v>
       </c>
       <c r="D18" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F18" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>10</v>
@@ -1872,7 +1872,7 @@
         <v>14</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>23</v>
@@ -1895,10 +1895,10 @@
         <v>17</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>10</v>
